--- a/downloaded_files/CMPS452_Tutorial-35550.xlsx
+++ b/downloaded_files/CMPS452_Tutorial-35550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Menna Salah Mohamed Alawadly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>4220145</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4216208333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4216208333</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS452_Tutorial-35550.xlsx
+++ b/downloaded_files/CMPS452_Tutorial-35550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Essam Elshahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسر تامر محمد وجدى محمد كامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asser Tamer Mohamed Wagdy</x:t>
   </x:si>
   <x:si>
     <x:t>4220112</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -776,7 +767,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6863524306</x:v>
+        <x:v>45906.4161777778</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4161777778</x:v>
+        <x:v>45906.4155851505</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -840,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45906.6651888889</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -872,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651888889</x:v>
+        <x:v>45906.6644744213</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6644744213</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45909.4195329861</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4195329861</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4457987269</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4457987269</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.6665324884</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6665324884</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45909.4216208333</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4216208333</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS452_Tutorial-35550.xlsx
+++ b/downloaded_files/CMPS452_Tutorial-35550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Ahmed Afifi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد نبيل السيد الطوخى حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
   </x:si>
   <x:si>
     <x:t>1210299</x:t>
@@ -344,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1183,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4457987269</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4457987269</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.6665324884</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6665324884</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45909.4216208333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4216208333</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1392,38 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS452_Tutorial-35550.xlsx
+++ b/downloaded_files/CMPS452_Tutorial-35550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,24 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Menna Salah Mohamed Alawadly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين حسن حامد محمد خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران شمس الدين محمد علوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -335,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1319,70 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.4216208333</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS452_Tutorial-35550.xlsx
+++ b/downloaded_files/CMPS452_Tutorial-35550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Danah Rafik Reyad Aly Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1210226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد مهدى عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210252</x:t>
   </x:si>
   <x:si>
@@ -177,15 +168,6 @@
     <x:t>Mariam mahrous mohamed abdelaal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مصطفى عمر حبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Mostafa Omar Habeb</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210162</x:t>
   </x:si>
   <x:si>
@@ -202,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Menna Salah Mohamed Alawadly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -627,7 +618,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.310625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.370625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -868,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45909.4195329861</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4195329861</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4457987269</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4457987269</x:v>
+        <x:v>45906.6665324884</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6665324884</x:v>
+        <x:v>45931.6403953704</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4142854167</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
